--- a/data/raw/election/voters-age-sex-education/2023/Bartın.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bartın.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:27:59-63494809426" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="33">
   <si>
     <t>Bartın</t>
   </si>
@@ -113,6 +112,12 @@
   </si>
   <si>
     <t>Ulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,10 +671,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,10 +1008,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,24 +1027,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2064,20 +2078,20 @@
       <c r="D30" s="5">
         <v>670</v>
       </c>
-      <c r="E30" s="5">
-        <v>3.2730000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.254</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.625</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.482</v>
+      <c r="E30" s="7">
+        <v>3273</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1254</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1638</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2625</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1482</v>
       </c>
       <c r="J30" s="5">
         <v>105</v>
@@ -2088,8 +2102,8 @@
       <c r="L30" s="5">
         <v>145</v>
       </c>
-      <c r="M30" s="5">
-        <v>11.577</v>
+      <c r="M30" s="7">
+        <v>11577</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2150,11 +2164,11 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.607</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4.649</v>
+      <c r="G32" s="9">
+        <v>1607</v>
+      </c>
+      <c r="H32" s="9">
+        <v>4649</v>
       </c>
       <c r="I32" s="4">
         <v>949</v>
@@ -2168,8 +2182,8 @@
       <c r="L32" s="4">
         <v>67</v>
       </c>
-      <c r="M32" s="5">
-        <v>7.2939999999999996</v>
+      <c r="M32" s="7">
+        <v>7294</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,14 +2203,14 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.5980000000000001</v>
+      <c r="G33" s="9">
+        <v>1136</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4360</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1598</v>
       </c>
       <c r="J33" s="4">
         <v>6</v>
@@ -2207,8 +2221,8 @@
       <c r="L33" s="4">
         <v>19</v>
       </c>
-      <c r="M33" s="5">
-        <v>7.1369999999999996</v>
+      <c r="M33" s="7">
+        <v>7137</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,14 +2244,14 @@
       <c r="F34" s="4">
         <v>16</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.69</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.847</v>
+      <c r="G34" s="9">
+        <v>1253</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1690</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1847</v>
       </c>
       <c r="J34" s="4">
         <v>129</v>
@@ -2248,8 +2262,8 @@
       <c r="L34" s="4">
         <v>30</v>
       </c>
-      <c r="M34" s="5">
-        <v>4.9829999999999997</v>
+      <c r="M34" s="7">
+        <v>4983</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,14 +2283,14 @@
       <c r="F35" s="4">
         <v>17</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.3090000000000002</v>
+      <c r="G35" s="9">
+        <v>1204</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1208</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2309</v>
       </c>
       <c r="J35" s="4">
         <v>175</v>
@@ -2287,8 +2301,8 @@
       <c r="L35" s="4">
         <v>26</v>
       </c>
-      <c r="M35" s="5">
-        <v>4.9710000000000001</v>
+      <c r="M35" s="7">
+        <v>4971</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2313,11 +2327,11 @@
       <c r="G36" s="4">
         <v>521</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.679</v>
+      <c r="H36" s="9">
+        <v>1731</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1679</v>
       </c>
       <c r="J36" s="4">
         <v>227</v>
@@ -2328,8 +2342,8 @@
       <c r="L36" s="4">
         <v>20</v>
       </c>
-      <c r="M36" s="5">
-        <v>5.16</v>
+      <c r="M36" s="7">
+        <v>5160</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,17 +2360,17 @@
       <c r="E37" s="4">
         <v>25</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.2709999999999999</v>
+      <c r="F37" s="9">
+        <v>1271</v>
       </c>
       <c r="G37" s="4">
         <v>543</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.661</v>
+      <c r="H37" s="9">
+        <v>1235</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1661</v>
       </c>
       <c r="J37" s="4">
         <v>245</v>
@@ -2367,8 +2381,8 @@
       <c r="L37" s="4">
         <v>27</v>
       </c>
-      <c r="M37" s="5">
-        <v>5.0720000000000001</v>
+      <c r="M37" s="7">
+        <v>5072</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2387,17 +2401,17 @@
       <c r="E38" s="4">
         <v>103</v>
       </c>
-      <c r="F38" s="4">
-        <v>1.397</v>
+      <c r="F38" s="9">
+        <v>1397</v>
       </c>
       <c r="G38" s="4">
         <v>552</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.96</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.407</v>
+      <c r="H38" s="9">
+        <v>1960</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1407</v>
       </c>
       <c r="J38" s="4">
         <v>247</v>
@@ -2408,8 +2422,8 @@
       <c r="L38" s="4">
         <v>36</v>
       </c>
-      <c r="M38" s="5">
-        <v>5.7990000000000004</v>
+      <c r="M38" s="7">
+        <v>5799</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,17 +2440,17 @@
       <c r="E39" s="4">
         <v>771</v>
       </c>
-      <c r="F39" s="4">
-        <v>1.218</v>
+      <c r="F39" s="9">
+        <v>1218</v>
       </c>
       <c r="G39" s="4">
         <v>762</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.363</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.18</v>
+      <c r="H39" s="9">
+        <v>1363</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1180</v>
       </c>
       <c r="J39" s="4">
         <v>209</v>
@@ -2447,8 +2461,8 @@
       <c r="L39" s="4">
         <v>25</v>
       </c>
-      <c r="M39" s="5">
-        <v>5.61</v>
+      <c r="M39" s="7">
+        <v>5610</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2467,17 +2481,17 @@
       <c r="E40" s="4">
         <v>150</v>
       </c>
-      <c r="F40" s="4">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.1639999999999999</v>
+      <c r="F40" s="9">
+        <v>1457</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1007</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2135</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1164</v>
       </c>
       <c r="J40" s="4">
         <v>199</v>
@@ -2488,8 +2502,8 @@
       <c r="L40" s="4">
         <v>40</v>
       </c>
-      <c r="M40" s="5">
-        <v>6.2210000000000001</v>
+      <c r="M40" s="7">
+        <v>6221</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2503,17 +2517,17 @@
       <c r="D41" s="4">
         <v>21</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.431</v>
+      <c r="E41" s="9">
+        <v>1390</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1061</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1130</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1431</v>
       </c>
       <c r="I41" s="4">
         <v>981</v>
@@ -2527,8 +2541,8 @@
       <c r="L41" s="4">
         <v>37</v>
       </c>
-      <c r="M41" s="5">
-        <v>6.2510000000000003</v>
+      <c r="M41" s="7">
+        <v>6251</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2547,14 +2561,14 @@
       <c r="E42" s="4">
         <v>335</v>
       </c>
-      <c r="F42" s="4">
-        <v>1.585</v>
+      <c r="F42" s="9">
+        <v>1585</v>
       </c>
       <c r="G42" s="4">
         <v>758</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.883</v>
+      <c r="H42" s="9">
+        <v>1883</v>
       </c>
       <c r="I42" s="4">
         <v>961</v>
@@ -2568,8 +2582,8 @@
       <c r="L42" s="4">
         <v>58</v>
       </c>
-      <c r="M42" s="5">
-        <v>5.7720000000000002</v>
+      <c r="M42" s="7">
+        <v>5772</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2583,17 +2597,17 @@
       <c r="D43" s="4">
         <v>38</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.706</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1.161</v>
+      <c r="E43" s="9">
+        <v>1706</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1161</v>
       </c>
       <c r="G43" s="4">
         <v>984</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.0880000000000001</v>
+      <c r="H43" s="9">
+        <v>1088</v>
       </c>
       <c r="I43" s="4">
         <v>620</v>
@@ -2607,8 +2621,8 @@
       <c r="L43" s="4">
         <v>67</v>
       </c>
-      <c r="M43" s="5">
-        <v>5.8049999999999997</v>
+      <c r="M43" s="7">
+        <v>5805</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2627,14 +2641,14 @@
       <c r="E44" s="4">
         <v>666</v>
       </c>
-      <c r="F44" s="4">
-        <v>1.659</v>
+      <c r="F44" s="9">
+        <v>1659</v>
       </c>
       <c r="G44" s="4">
         <v>739</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.06</v>
+      <c r="H44" s="9">
+        <v>1060</v>
       </c>
       <c r="I44" s="4">
         <v>829</v>
@@ -2648,8 +2662,8 @@
       <c r="L44" s="4">
         <v>82</v>
       </c>
-      <c r="M44" s="5">
-        <v>5.2</v>
+      <c r="M44" s="7">
+        <v>5200</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2663,8 +2677,8 @@
       <c r="D45" s="4">
         <v>113</v>
       </c>
-      <c r="E45" s="4">
-        <v>2.2109999999999999</v>
+      <c r="E45" s="9">
+        <v>2211</v>
       </c>
       <c r="F45" s="4">
         <v>959</v>
@@ -2687,8 +2701,8 @@
       <c r="L45" s="4">
         <v>110</v>
       </c>
-      <c r="M45" s="5">
-        <v>5.3920000000000003</v>
+      <c r="M45" s="7">
+        <v>5392</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2704,11 +2718,11 @@
       <c r="D46" s="4">
         <v>14</v>
       </c>
-      <c r="E46" s="4">
-        <v>1.276</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1.1890000000000001</v>
+      <c r="E46" s="9">
+        <v>1276</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1189</v>
       </c>
       <c r="G46" s="4">
         <v>692</v>
@@ -2728,8 +2742,8 @@
       <c r="L46" s="4">
         <v>128</v>
       </c>
-      <c r="M46" s="5">
-        <v>4.6059999999999999</v>
+      <c r="M46" s="7">
+        <v>4606</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,8 +2757,8 @@
       <c r="D47" s="4">
         <v>365</v>
       </c>
-      <c r="E47" s="4">
-        <v>2.6339999999999999</v>
+      <c r="E47" s="9">
+        <v>2634</v>
       </c>
       <c r="F47" s="4">
         <v>581</v>
@@ -2767,8 +2781,8 @@
       <c r="L47" s="4">
         <v>113</v>
       </c>
-      <c r="M47" s="5">
-        <v>5.0720000000000001</v>
+      <c r="M47" s="7">
+        <v>5072</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,8 +2798,8 @@
       <c r="D48" s="4">
         <v>46</v>
       </c>
-      <c r="E48" s="4">
-        <v>2.0859999999999999</v>
+      <c r="E48" s="9">
+        <v>2086</v>
       </c>
       <c r="F48" s="4">
         <v>565</v>
@@ -2808,8 +2822,8 @@
       <c r="L48" s="4">
         <v>81</v>
       </c>
-      <c r="M48" s="5">
-        <v>4.2949999999999999</v>
+      <c r="M48" s="7">
+        <v>4295</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2823,8 +2837,8 @@
       <c r="D49" s="4">
         <v>704</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.6520000000000001</v>
+      <c r="E49" s="9">
+        <v>2652</v>
       </c>
       <c r="F49" s="4">
         <v>297</v>
@@ -2847,8 +2861,8 @@
       <c r="L49" s="4">
         <v>85</v>
       </c>
-      <c r="M49" s="5">
-        <v>4.8499999999999996</v>
+      <c r="M49" s="7">
+        <v>4850</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2864,8 +2878,8 @@
       <c r="D50" s="4">
         <v>98</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.3380000000000001</v>
+      <c r="E50" s="9">
+        <v>2338</v>
       </c>
       <c r="F50" s="4">
         <v>236</v>
@@ -2888,8 +2902,8 @@
       <c r="L50" s="4">
         <v>40</v>
       </c>
-      <c r="M50" s="5">
-        <v>3.758</v>
+      <c r="M50" s="7">
+        <v>3758</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,11 +2914,11 @@
       <c r="C51" s="4">
         <v>354</v>
       </c>
-      <c r="D51" s="4">
-        <v>1.177</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2.0110000000000001</v>
+      <c r="D51" s="9">
+        <v>1177</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2011</v>
       </c>
       <c r="F51" s="4">
         <v>116</v>
@@ -2927,8 +2941,8 @@
       <c r="L51" s="4">
         <v>47</v>
       </c>
-      <c r="M51" s="5">
-        <v>4.1989999999999998</v>
+      <c r="M51" s="7">
+        <v>4199</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2944,8 +2958,8 @@
       <c r="D52" s="4">
         <v>178</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.907</v>
+      <c r="E52" s="9">
+        <v>1907</v>
       </c>
       <c r="F52" s="4">
         <v>59</v>
@@ -2968,8 +2982,8 @@
       <c r="L52" s="4">
         <v>17</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.7919999999999998</v>
+      <c r="M52" s="7">
+        <v>2792</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2980,11 +2994,11 @@
       <c r="C53" s="4">
         <v>487</v>
       </c>
-      <c r="D53" s="4">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1.1719999999999999</v>
+      <c r="D53" s="9">
+        <v>1116</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1172</v>
       </c>
       <c r="F53" s="4">
         <v>39</v>
@@ -3007,8 +3021,8 @@
       <c r="L53" s="4">
         <v>44</v>
       </c>
-      <c r="M53" s="5">
-        <v>3.1480000000000001</v>
+      <c r="M53" s="7">
+        <v>3148</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,8 +3038,8 @@
       <c r="D54" s="4">
         <v>541</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.804</v>
+      <c r="E54" s="9">
+        <v>1804</v>
       </c>
       <c r="F54" s="4">
         <v>27</v>
@@ -3048,8 +3062,8 @@
       <c r="L54" s="4">
         <v>73</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.9990000000000001</v>
+      <c r="M54" s="7">
+        <v>2999</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3057,14 +3071,14 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1.429</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1.2649999999999999</v>
+      <c r="C55" s="9">
+        <v>1344</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1429</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1265</v>
       </c>
       <c r="F55" s="4">
         <v>15</v>
@@ -3087,8 +3101,8 @@
       <c r="L55" s="4">
         <v>49</v>
       </c>
-      <c r="M55" s="5">
-        <v>4.2789999999999999</v>
+      <c r="M55" s="7">
+        <v>4279</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3096,38 +3110,38 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.1110000000000002</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5.9530000000000003</v>
-      </c>
-      <c r="E56" s="5">
-        <v>26.553000000000001</v>
-      </c>
-      <c r="F56" s="5">
-        <v>15.85</v>
-      </c>
-      <c r="G56" s="5">
-        <v>16.045999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>29.777999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>19.486999999999998</v>
-      </c>
-      <c r="J56" s="5">
-        <v>2.0870000000000002</v>
+      <c r="C56" s="7">
+        <v>3111</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5953</v>
+      </c>
+      <c r="E56" s="7">
+        <v>26553</v>
+      </c>
+      <c r="F56" s="7">
+        <v>15850</v>
+      </c>
+      <c r="G56" s="7">
+        <v>16046</v>
+      </c>
+      <c r="H56" s="7">
+        <v>29778</v>
+      </c>
+      <c r="I56" s="7">
+        <v>19487</v>
+      </c>
+      <c r="J56" s="7">
+        <v>2087</v>
       </c>
       <c r="K56" s="5">
         <v>479</v>
       </c>
-      <c r="L56" s="5">
-        <v>1.321</v>
-      </c>
-      <c r="M56" s="5">
-        <v>120.66500000000001</v>
+      <c r="L56" s="7">
+        <v>1321</v>
+      </c>
+      <c r="M56" s="7">
+        <v>120665</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4140,8 +4154,8 @@
       <c r="D82" s="5">
         <v>449</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.6839999999999999</v>
+      <c r="E82" s="7">
+        <v>1684</v>
       </c>
       <c r="F82" s="5">
         <v>666</v>
@@ -4164,8 +4178,8 @@
       <c r="L82" s="5">
         <v>89</v>
       </c>
-      <c r="M82" s="5">
-        <v>5.4089999999999998</v>
+      <c r="M82" s="7">
+        <v>5409</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4804,8 +4818,8 @@
       <c r="L98" s="4">
         <v>10</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M98" s="7">
+        <v>1029</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4843,8 +4857,8 @@
       <c r="L99" s="4">
         <v>8</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.054</v>
+      <c r="M99" s="7">
+        <v>1054</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4884,8 +4898,8 @@
       <c r="L100" s="4">
         <v>9</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M100" s="7">
+        <v>1029</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4923,8 +4937,8 @@
       <c r="L101" s="4">
         <v>7</v>
       </c>
-      <c r="M101" s="5">
-        <v>1.1020000000000001</v>
+      <c r="M101" s="7">
+        <v>1102</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4964,8 +4978,8 @@
       <c r="L102" s="4">
         <v>6</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.1299999999999999</v>
+      <c r="M102" s="7">
+        <v>1130</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,8 +5017,8 @@
       <c r="L103" s="4">
         <v>10</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.1559999999999999</v>
+      <c r="M103" s="7">
+        <v>1156</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,8 +5177,8 @@
       <c r="L107" s="4">
         <v>20</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.165</v>
+      <c r="M107" s="7">
+        <v>1165</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5172,26 +5186,26 @@
         <v>12</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.014</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="E108" s="5">
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.218</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.94</v>
-      </c>
-      <c r="H108" s="5">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.55</v>
+      <c r="C108" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1848</v>
+      </c>
+      <c r="E108" s="7">
+        <v>6273</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2218</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1940</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3255</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1550</v>
       </c>
       <c r="J108" s="5">
         <v>115</v>
@@ -5202,8 +5216,18 @@
       <c r="L108" s="5">
         <v>174</v>
       </c>
-      <c r="M108" s="5">
-        <v>18.391999999999999</v>
+      <c r="M108" s="7">
+        <v>18392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
